--- a/ClickHeroByCreator/GameCfg/Hero.xlsx
+++ b/ClickHeroByCreator/GameCfg/Hero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F65F9-D2FD-43B8-ABF4-B63044CF0584}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D068A91-66D7-41EB-BA5F-9726A4880DD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="468">
   <si>
     <t>元始天尊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沙悟净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文殊菩萨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1559,6 +1555,309 @@
   </si>
   <si>
     <t>迅捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二当家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼葡萄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提老祖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白晶晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>春十三娘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛香香</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁扇公主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕阳武士至尊宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会了和紫霞偷偷开房。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪迹天涯</t>
+  </si>
+  <si>
+    <t>只羡鸳鸯不羡仙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痴狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本是同芯，相煎何急？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回头是岸</t>
+  </si>
+  <si>
+    <t>卷积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴戾</t>
+  </si>
+  <si>
+    <t>灯芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕉扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝我一扇！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逼婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刁蛮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背叛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一生只能嫁给至尊宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移型大法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找到一个很像你的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚣张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移情</t>
+  </si>
+  <si>
+    <t>羞愧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至情至性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精深广博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休提我是你师父。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花过处，寸草不生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气傲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄命</t>
+  </si>
+  <si>
+    <t>赏心悦目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袭人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是一串葡萄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦幻亦真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遁形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自欺欺人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起哄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喧闹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不羁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经烧焦，割了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要回头，爱恨别天涯。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1566,7 +1865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,6 +1885,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1608,9 +1914,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1891,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1910,1463 +2219,1749 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
+        <v>391</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>465</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>461</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>454</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>451</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>453</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>435</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>427</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>423</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>425</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>377</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s">
-        <v>374</v>
-      </c>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>373</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>467</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>406</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>335</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="H26" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" t="s">
-        <v>248</v>
+        <v>199</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" t="s">
         <v>216</v>
       </c>
-      <c r="F33" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" t="s">
-        <v>274</v>
-      </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="E35" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="G36" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="G40" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>310</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="E43" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
-        <v>390</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>389</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="H44" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="H46" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="E47" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G47" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H48" t="s">
-        <v>385</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>339</v>
+        <v>294</v>
+      </c>
+      <c r="H49" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="G50" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="H50" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="E51" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="H51" t="s">
-        <v>342</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="E52" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="G52" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
-        <v>355</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="E53" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="G53" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="E54" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="G54" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="H54" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E55" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="G55" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F56" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" t="s">
+        <v>317</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" t="s">
+        <v>325</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" t="s">
+        <v>329</v>
+      </c>
+      <c r="F59" t="s">
+        <v>331</v>
+      </c>
+      <c r="G59" t="s">
+        <v>332</v>
+      </c>
+      <c r="H59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" t="s">
+        <v>336</v>
+      </c>
+      <c r="F60" t="s">
+        <v>337</v>
+      </c>
+      <c r="G60" t="s">
+        <v>339</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" t="s">
+        <v>345</v>
+      </c>
+      <c r="H61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" t="s">
+        <v>349</v>
+      </c>
+      <c r="H62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" t="s">
+        <v>352</v>
+      </c>
+      <c r="H63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" t="s">
+        <v>356</v>
+      </c>
+      <c r="F64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G64" t="s">
+        <v>357</v>
+      </c>
+      <c r="H64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>363</v>
+      </c>
+      <c r="E65" t="s">
+        <v>362</v>
+      </c>
+      <c r="F65" t="s">
+        <v>343</v>
+      </c>
+      <c r="G65" t="s">
+        <v>360</v>
+      </c>
+      <c r="H65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>366</v>
+      </c>
+      <c r="F66" t="s">
+        <v>367</v>
+      </c>
+      <c r="G66" t="s">
+        <v>361</v>
+      </c>
+      <c r="H66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" t="s">
+        <v>364</v>
+      </c>
+      <c r="F67" t="s">
         <v>371</v>
       </c>
-      <c r="E56" t="s">
-        <v>365</v>
-      </c>
-      <c r="F56" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" t="s">
-        <v>370</v>
-      </c>
-      <c r="H56" t="s">
-        <v>343</v>
+      <c r="G67" t="s">
+        <v>369</v>
+      </c>
+      <c r="H67" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C57">
-    <sortCondition descending="1" ref="A2"/>
+  <sortState ref="A11:C68">
+    <sortCondition descending="1" ref="A11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClickHeroByCreator/GameCfg/Hero.xlsx
+++ b/ClickHeroByCreator/GameCfg/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D068A91-66D7-41EB-BA5F-9726A4880DD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB51310F-8F4C-4DD4-AC92-34843DAAF781}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,9 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螭龙</t>
-  </si>
-  <si>
     <t>怀爱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1858,6 +1855,10 @@
   </si>
   <si>
     <t>不要回头，爱恨别天涯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螭龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1865,7 +1866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1894,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1914,12 +1922,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2202,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,25 +2257,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" t="s">
         <v>464</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
         <v>462</v>
-      </c>
-      <c r="F2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2274,25 +2283,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" t="s">
         <v>457</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" t="s">
         <v>458</v>
-      </c>
-      <c r="F3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2300,25 +2309,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" t="s">
         <v>454</v>
-      </c>
-      <c r="D4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2326,25 +2335,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="s">
         <v>440</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>441</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>442</v>
       </c>
-      <c r="G5" t="s">
-        <v>443</v>
-      </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2352,25 +2361,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" t="s">
         <v>433</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>434</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>435</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>436</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>437</v>
-      </c>
-      <c r="H6" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2378,25 +2387,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" t="s">
         <v>445</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>446</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>447</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>448</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>449</v>
-      </c>
-      <c r="H7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2404,25 +2413,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" t="s">
         <v>431</v>
-      </c>
-      <c r="D8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" t="s">
-        <v>427</v>
-      </c>
-      <c r="H8" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2430,25 +2439,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" t="s">
         <v>422</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>423</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>424</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>425</v>
       </c>
-      <c r="G9" t="s">
-        <v>426</v>
-      </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,25 +2465,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" t="s">
         <v>415</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H10" t="s">
         <v>416</v>
-      </c>
-      <c r="E10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G10" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2508,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2586,25 +2595,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" t="s">
         <v>404</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>405</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>406</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>407</v>
-      </c>
-      <c r="H15" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,19 +2731,19 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" t="s">
         <v>255</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>256</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>257</v>
       </c>
-      <c r="G20" t="s">
-        <v>258</v>
-      </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2742,25 +2751,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" t="s">
         <v>409</v>
-      </c>
-      <c r="D21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" t="s">
-        <v>412</v>
-      </c>
-      <c r="F21" t="s">
-        <v>411</v>
-      </c>
-      <c r="G21" t="s">
-        <v>414</v>
-      </c>
-      <c r="H21" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2826,19 +2835,19 @@
         <v>117</v>
       </c>
       <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" t="s">
         <v>378</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>375</v>
-      </c>
-      <c r="F24" t="s">
-        <v>377</v>
-      </c>
-      <c r="G24" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2858,13 +2867,13 @@
         <v>130</v>
       </c>
       <c r="F25" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" t="s">
         <v>373</v>
       </c>
-      <c r="G25" t="s">
-        <v>374</v>
-      </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2887,7 +2896,7 @@
         <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H26" t="s">
         <v>191</v>
@@ -2939,7 +2948,7 @@
         <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H28" t="s">
         <v>147</v>
@@ -2961,11 +2970,11 @@
       <c r="E29" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G29" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" t="s">
-        <v>201</v>
       </c>
       <c r="H29" t="s">
         <v>197</v>
@@ -2985,13 +2994,13 @@
         <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
         <v>137</v>
@@ -3008,19 +3017,19 @@
         <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
         <v>208</v>
       </c>
-      <c r="G31" t="s">
-        <v>209</v>
-      </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3034,16 +3043,16 @@
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H32" t="s">
         <v>143</v>
@@ -3060,16 +3069,16 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
         <v>215</v>
-      </c>
-      <c r="E33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" t="s">
-        <v>216</v>
       </c>
       <c r="H33" t="s">
         <v>146</v>
@@ -3086,16 +3095,16 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" t="s">
         <v>218</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>219</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>220</v>
-      </c>
-      <c r="G34" t="s">
-        <v>221</v>
       </c>
       <c r="H34" t="s">
         <v>141</v>
@@ -3112,16 +3121,16 @@
         <v>63</v>
       </c>
       <c r="D35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" t="s">
         <v>222</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>223</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>224</v>
-      </c>
-      <c r="G35" t="s">
-        <v>225</v>
       </c>
       <c r="H35" t="s">
         <v>140</v>
@@ -3138,16 +3147,16 @@
         <v>78</v>
       </c>
       <c r="D36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
         <v>226</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>227</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>228</v>
-      </c>
-      <c r="G36" t="s">
-        <v>229</v>
       </c>
       <c r="H36" t="s">
         <v>142</v>
@@ -3164,19 +3173,19 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" t="s">
         <v>230</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>231</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>232</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>233</v>
-      </c>
-      <c r="H37" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3190,16 +3199,16 @@
         <v>77</v>
       </c>
       <c r="D38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" t="s">
         <v>235</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>236</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>237</v>
-      </c>
-      <c r="G38" t="s">
-        <v>238</v>
       </c>
       <c r="H38" t="s">
         <v>125</v>
@@ -3216,19 +3225,19 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
         <v>239</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>240</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>241</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>242</v>
-      </c>
-      <c r="H39" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3242,19 +3251,19 @@
         <v>81</v>
       </c>
       <c r="D40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" t="s">
         <v>245</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>246</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>247</v>
       </c>
-      <c r="G40" t="s">
-        <v>248</v>
-      </c>
       <c r="H40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3268,19 +3277,19 @@
         <v>82</v>
       </c>
       <c r="D41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" t="s">
         <v>251</v>
       </c>
-      <c r="E41" t="s">
-        <v>252</v>
-      </c>
       <c r="F41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3294,16 +3303,16 @@
         <v>80</v>
       </c>
       <c r="D42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" t="s">
         <v>260</v>
       </c>
-      <c r="E42" t="s">
-        <v>261</v>
-      </c>
       <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
         <v>263</v>
-      </c>
-      <c r="G42" t="s">
-        <v>264</v>
       </c>
       <c r="H42" t="s">
         <v>127</v>
@@ -3320,19 +3329,19 @@
         <v>79</v>
       </c>
       <c r="D43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" t="s">
         <v>265</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>266</v>
-      </c>
-      <c r="F43" t="s">
-        <v>267</v>
       </c>
       <c r="G43" t="s">
         <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3346,19 +3355,19 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44" t="s">
         <v>272</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>273</v>
-      </c>
-      <c r="H44" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3372,19 +3381,19 @@
         <v>84</v>
       </c>
       <c r="D45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
         <v>269</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>275</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>270</v>
-      </c>
-      <c r="G45" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3398,19 +3407,19 @@
         <v>86</v>
       </c>
       <c r="D46" t="s">
+        <v>276</v>
+      </c>
+      <c r="E46" t="s">
         <v>277</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>278</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>279</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>280</v>
-      </c>
-      <c r="H46" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3424,19 +3433,19 @@
         <v>87</v>
       </c>
       <c r="D47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" t="s">
         <v>285</v>
       </c>
-      <c r="E47" t="s">
-        <v>286</v>
-      </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3450,16 +3459,16 @@
         <v>88</v>
       </c>
       <c r="D48" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" t="s">
         <v>287</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>288</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>289</v>
-      </c>
-      <c r="G48" t="s">
-        <v>290</v>
       </c>
       <c r="H48" t="s">
         <v>128</v>
@@ -3476,19 +3485,19 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" t="s">
         <v>291</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>292</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>293</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>294</v>
-      </c>
-      <c r="H49" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3502,19 +3511,19 @@
         <v>106</v>
       </c>
       <c r="D50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" t="s">
         <v>296</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>297</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>298</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>299</v>
-      </c>
-      <c r="H50" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3528,16 +3537,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="s">
+        <v>379</v>
+      </c>
+      <c r="E51" t="s">
         <v>380</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>381</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>382</v>
-      </c>
-      <c r="G51" t="s">
-        <v>383</v>
       </c>
       <c r="H51" t="s">
         <v>139</v>
@@ -3554,16 +3563,16 @@
         <v>103</v>
       </c>
       <c r="D52" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" t="s">
         <v>301</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>302</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>303</v>
-      </c>
-      <c r="G52" t="s">
-        <v>304</v>
       </c>
       <c r="H52" t="s">
         <v>129</v>
@@ -3580,19 +3589,19 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" t="s">
         <v>305</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" t="s">
         <v>306</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>308</v>
-      </c>
-      <c r="G53" t="s">
-        <v>307</v>
-      </c>
-      <c r="H53" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3606,19 +3615,19 @@
         <v>99</v>
       </c>
       <c r="D54" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" t="s">
         <v>385</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>386</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>388</v>
+      </c>
+      <c r="H54" t="s">
         <v>387</v>
-      </c>
-      <c r="G54" t="s">
-        <v>389</v>
-      </c>
-      <c r="H54" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3632,19 +3641,19 @@
         <v>89</v>
       </c>
       <c r="D55" t="s">
+        <v>309</v>
+      </c>
+      <c r="E55" t="s">
         <v>310</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>311</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H55" t="s">
         <v>312</v>
-      </c>
-      <c r="G55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H55" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3658,16 +3667,16 @@
         <v>91</v>
       </c>
       <c r="D56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E56" t="s">
         <v>315</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>317</v>
+      </c>
+      <c r="G56" t="s">
         <v>316</v>
-      </c>
-      <c r="F56" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" t="s">
-        <v>317</v>
       </c>
       <c r="H56" t="s">
         <v>144</v>
@@ -3684,19 +3693,19 @@
         <v>102</v>
       </c>
       <c r="D57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" t="s">
         <v>319</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>320</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>321</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>322</v>
-      </c>
-      <c r="H57" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3710,19 +3719,19 @@
         <v>90</v>
       </c>
       <c r="D58" t="s">
+        <v>323</v>
+      </c>
+      <c r="E58" t="s">
         <v>324</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>325</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
+        <v>327</v>
+      </c>
+      <c r="H58" t="s">
         <v>326</v>
-      </c>
-      <c r="G58" t="s">
-        <v>328</v>
-      </c>
-      <c r="H58" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3736,19 +3745,19 @@
         <v>93</v>
       </c>
       <c r="D59" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" t="s">
+        <v>328</v>
+      </c>
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="E59" t="s">
-        <v>329</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>331</v>
       </c>
-      <c r="G59" t="s">
-        <v>332</v>
-      </c>
       <c r="H59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3762,19 +3771,19 @@
         <v>92</v>
       </c>
       <c r="D60" t="s">
+        <v>334</v>
+      </c>
+      <c r="E60" t="s">
         <v>335</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>336</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>338</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="G60" t="s">
-        <v>339</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3788,19 +3797,19 @@
         <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E61" t="s">
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3814,19 +3823,19 @@
         <v>101</v>
       </c>
       <c r="D62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" t="s">
         <v>346</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>347</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>348</v>
       </c>
-      <c r="G62" t="s">
-        <v>349</v>
-      </c>
       <c r="H62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3840,19 +3849,19 @@
         <v>97</v>
       </c>
       <c r="D63" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" t="s">
         <v>350</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s">
         <v>351</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>353</v>
-      </c>
-      <c r="G63" t="s">
-        <v>352</v>
-      </c>
-      <c r="H63" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,19 +3875,19 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E64" t="s">
         <v>355</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>358</v>
+      </c>
+      <c r="G64" t="s">
         <v>356</v>
       </c>
-      <c r="F64" t="s">
-        <v>359</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>357</v>
-      </c>
-      <c r="H64" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,19 +3901,19 @@
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3918,19 +3927,19 @@
         <v>94</v>
       </c>
       <c r="D66" t="s">
+        <v>364</v>
+      </c>
+      <c r="E66" t="s">
         <v>365</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>366</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>360</v>
+      </c>
+      <c r="H66" t="s">
         <v>367</v>
-      </c>
-      <c r="G66" t="s">
-        <v>361</v>
-      </c>
-      <c r="H66" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3944,19 +3953,19 @@
         <v>95</v>
       </c>
       <c r="D67" t="s">
+        <v>369</v>
+      </c>
+      <c r="E67" t="s">
+        <v>363</v>
+      </c>
+      <c r="F67" t="s">
         <v>370</v>
       </c>
-      <c r="E67" t="s">
-        <v>364</v>
-      </c>
-      <c r="F67" t="s">
-        <v>371</v>
-      </c>
       <c r="G67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
